--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/20/seed4/result_data_RandomForest.xlsx
@@ -536,7 +536,7 @@
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.84960000000001</v>
+        <v>-11.9732</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -550,13 +550,13 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.760599999999999</v>
+        <v>5.641399999999999</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.4487</v>
+        <v>-7.590299999999993</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.88850000000002</v>
+        <v>-21.85180000000001</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -607,7 +607,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.180799999999998</v>
+        <v>-8.259399999999994</v>
       </c>
       <c r="E10" t="n">
         <v>15.84</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.578999999999994</v>
+        <v>5.328799999999998</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.54709999999999</v>
+        <v>-22.49130000000001</v>
       </c>
       <c r="B13" t="n">
         <v>4.02</v>
@@ -658,7 +658,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.621899999999997</v>
+        <v>-8.512099999999998</v>
       </c>
       <c r="E13" t="n">
         <v>16.47</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.666900000000001</v>
+        <v>5.6496</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.47629999999999</v>
+        <v>-14.5534</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.51599999999998</v>
+        <v>-21.47509999999997</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-9.0662</v>
+        <v>-9.065300000000002</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.40950000000001</v>
+        <v>-22.41330000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -754,7 +754,7 @@
         <v>-18.24</v>
       </c>
       <c r="B19" t="n">
-        <v>8.536000000000001</v>
+        <v>8.656600000000001</v>
       </c>
       <c r="C19" t="n">
         <v>-12.15</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.25989999999998</v>
+        <v>-20.05439999999998</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.001399999999998</v>
+        <v>-7.082699999999997</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -845,7 +845,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.724999999999994</v>
+        <v>-7.647699999999999</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.14809999999998</v>
+        <v>-21.17619999999998</v>
       </c>
       <c r="B26" t="n">
-        <v>3.965800000000003</v>
+        <v>3.829300000000002</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.61469999999997</v>
+        <v>-21.37389999999997</v>
       </c>
       <c r="B27" t="n">
-        <v>5.490300000000003</v>
+        <v>5.322600000000002</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -910,7 +910,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.5774</v>
+        <v>-12.6023</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.73139999999999</v>
+        <v>-21.71249999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>5.407699999999998</v>
+        <v>5.487299999999998</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -981,7 +981,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-9.149599999999987</v>
+        <v>-9.161699999999987</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -995,7 +995,7 @@
         <v>6.69</v>
       </c>
       <c r="C33" t="n">
-        <v>-11.7107</v>
+        <v>-11.51879999999999</v>
       </c>
       <c r="D33" t="n">
         <v>-6.63</v>
@@ -1023,13 +1023,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-20.3458</v>
+        <v>-20.4952</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-11.92440000000001</v>
+        <v>-11.86210000000001</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.1845</v>
+        <v>-20.27709999999999</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.430800000000007</v>
+        <v>8.685700000000004</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1077,10 +1077,10 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>4.108099999999999</v>
+        <v>4.277699999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.1</v>
+        <v>-12.4513</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.327300000000003</v>
+        <v>-7.294800000000005</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1165,7 +1165,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-13.8698</v>
+        <v>-14.02549999999999</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.4629</v>
+        <v>-13.74469999999998</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1193,13 +1193,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-21.9802</v>
+        <v>-21.8833</v>
       </c>
       <c r="B45" t="n">
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.48369999999999</v>
+        <v>-13.46769999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1230,13 +1230,13 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>5.681600000000002</v>
+        <v>5.463000000000003</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.48019999999999</v>
+        <v>-12.47869999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.679899999999996</v>
+        <v>-7.914399999999998</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-6.991899999999995</v>
+        <v>-7.042099999999997</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1298,10 +1298,10 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>6.049400000000002</v>
+        <v>6.087400000000006</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.85519999999999</v>
+        <v>-11.8088</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1315,13 +1315,13 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.092500000000002</v>
+        <v>5.057</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.830699999999997</v>
+        <v>-7.895299999999999</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1352,7 +1352,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.9146</v>
+        <v>-13.221</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.6246</v>
+        <v>-22.5934</v>
       </c>
       <c r="B55" t="n">
-        <v>4.633199999999997</v>
+        <v>4.782699999999996</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-7.998099999999994</v>
+        <v>-7.936299999999997</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1397,13 +1397,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.8829</v>
+        <v>-21.92010000000001</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.5517</v>
+        <v>-13.84919999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1488,7 +1488,7 @@
         <v>4.28</v>
       </c>
       <c r="C62" t="n">
-        <v>-14.97839999999999</v>
+        <v>-14.60470000000001</v>
       </c>
       <c r="D62" t="n">
         <v>-8.5</v>
@@ -1505,7 +1505,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-11.4204</v>
+        <v>-11.4763</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.5419</v>
+        <v>-10.65799999999999</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.63489999999999</v>
+        <v>-21.6704</v>
       </c>
       <c r="B69" t="n">
-        <v>5.716199999999994</v>
+        <v>5.365599999999997</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1621,10 +1621,10 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>5.533500000000005</v>
+        <v>6.172300000000003</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.4368</v>
+        <v>-11.57339999999999</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1720,10 +1720,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-22.36050000000001</v>
+        <v>-22.2933</v>
       </c>
       <c r="B76" t="n">
-        <v>4.788399999999997</v>
+        <v>5.189599999999996</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.87199999999998</v>
+        <v>-19.84259999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1808,10 +1808,10 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.409100000000002</v>
+        <v>5.2137</v>
       </c>
       <c r="C81" t="n">
-        <v>-12.5438</v>
+        <v>-12.5128</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.0351</v>
+        <v>-21.99570000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-22.02939999999999</v>
+        <v>-22.05099999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>5.910200000000004</v>
+        <v>6.098300000000003</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.661199999999997</v>
+        <v>-8.923200000000001</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-12.81469999999999</v>
+        <v>-12.3412</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.77759999999997</v>
+        <v>-20.66019999999998</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2029,7 +2029,7 @@
         <v>-20.95</v>
       </c>
       <c r="B94" t="n">
-        <v>5.563599999999997</v>
+        <v>5.463899999999996</v>
       </c>
       <c r="C94" t="n">
         <v>-10.65</v>
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-11.7106</v>
+        <v>-11.8934</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-21.77</v>
+        <v>-21.6764</v>
       </c>
       <c r="B97" t="n">
         <v>5.08</v>
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.1241</v>
+        <v>-12.09299999999999</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
@@ -2131,13 +2131,13 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>4.831399999999999</v>
+        <v>4.653099999999998</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.627100000000004</v>
+        <v>-8.520599999999996</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2154,7 +2154,7 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.926099999999995</v>
+        <v>-7.723399999999995</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.451900000000004</v>
+        <v>8.625500000000002</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
